--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.016188</v>
+        <v>0.02482733333333334</v>
       </c>
       <c r="N2">
-        <v>0.048564</v>
+        <v>0.07448200000000001</v>
       </c>
       <c r="O2">
-        <v>0.007712021027818474</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="P2">
-        <v>0.007712021027818474</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="Q2">
-        <v>1.730150609524</v>
+        <v>5.250024320088889</v>
       </c>
       <c r="R2">
-        <v>15.571355485716</v>
+        <v>47.25021888080001</v>
       </c>
       <c r="S2">
-        <v>0.001163549863765367</v>
+        <v>0.002492059298889708</v>
       </c>
       <c r="T2">
-        <v>0.001163549863765368</v>
+        <v>0.002492059298889708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4940476666666667</v>
+        <v>2.387174666666667</v>
       </c>
       <c r="N3">
-        <v>1.482143</v>
+        <v>7.161524</v>
       </c>
       <c r="O3">
-        <v>0.2353660732689639</v>
+        <v>0.9897067525925213</v>
       </c>
       <c r="P3">
-        <v>0.2353660732689638</v>
+        <v>0.9897067525925214</v>
       </c>
       <c r="Q3">
-        <v>52.80311784144078</v>
+        <v>504.7954562028444</v>
       </c>
       <c r="R3">
-        <v>475.228060572967</v>
+        <v>4543.1591058256</v>
       </c>
       <c r="S3">
-        <v>0.03551081636048911</v>
+        <v>0.2396141682342286</v>
       </c>
       <c r="T3">
-        <v>0.03551081636048912</v>
+        <v>0.2396141682342286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>77.232923</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>231.698769</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.588825</v>
+        <v>0.02482733333333334</v>
       </c>
       <c r="N4">
-        <v>4.766475</v>
+        <v>0.07448200000000001</v>
       </c>
       <c r="O4">
-        <v>0.7569219057032177</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="P4">
-        <v>0.7569219057032177</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="Q4">
-        <v>169.8113752271416</v>
+        <v>1.917487523628667</v>
       </c>
       <c r="R4">
-        <v>1528.302377044275</v>
+        <v>17.257387712658</v>
       </c>
       <c r="S4">
-        <v>0.1142004640657901</v>
+        <v>0.0009101848529499595</v>
       </c>
       <c r="T4">
-        <v>0.1142004640657901</v>
+        <v>0.0009101848529499595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>231.698769</v>
       </c>
       <c r="I5">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J5">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.016188</v>
+        <v>2.387174666666667</v>
       </c>
       <c r="N5">
-        <v>0.048564</v>
+        <v>7.161524</v>
       </c>
       <c r="O5">
-        <v>0.007712021027818474</v>
+        <v>0.9897067525925213</v>
       </c>
       <c r="P5">
-        <v>0.007712021027818474</v>
+        <v>0.9897067525925214</v>
       </c>
       <c r="Q5">
-        <v>1.250246557524</v>
+        <v>184.3684772182173</v>
       </c>
       <c r="R5">
-        <v>11.252219017716</v>
+        <v>1659.316294963956</v>
       </c>
       <c r="S5">
-        <v>0.0008408078485608799</v>
+        <v>0.0875152475609893</v>
       </c>
       <c r="T5">
-        <v>0.0008408078485608801</v>
+        <v>0.08751524756098931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.232923</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H6">
-        <v>231.698769</v>
+        <v>522.932113</v>
       </c>
       <c r="I6">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J6">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4940476666666667</v>
+        <v>0.02482733333333334</v>
       </c>
       <c r="N6">
-        <v>1.482143</v>
+        <v>0.07448200000000001</v>
       </c>
       <c r="O6">
-        <v>0.2353660732689639</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="P6">
-        <v>0.2353660732689638</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="Q6">
-        <v>38.15674539799634</v>
+        <v>4.327669960051778</v>
       </c>
       <c r="R6">
-        <v>343.4107085819671</v>
+        <v>38.949029640466</v>
       </c>
       <c r="S6">
-        <v>0.02566093128839405</v>
+        <v>0.002054240039461395</v>
       </c>
       <c r="T6">
-        <v>0.02566093128839405</v>
+        <v>0.002054240039461395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.232923</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H7">
-        <v>231.698769</v>
+        <v>522.932113</v>
       </c>
       <c r="I7">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J7">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.588825</v>
+        <v>2.387174666666667</v>
       </c>
       <c r="N7">
-        <v>4.766475</v>
+        <v>7.161524</v>
       </c>
       <c r="O7">
-        <v>0.7569219057032177</v>
+        <v>0.9897067525925213</v>
       </c>
       <c r="P7">
-        <v>0.7569219057032177</v>
+        <v>0.9897067525925214</v>
       </c>
       <c r="Q7">
-        <v>122.709598885475</v>
+        <v>416.1100975133568</v>
       </c>
       <c r="R7">
-        <v>1104.386389969275</v>
+        <v>3744.990877620212</v>
       </c>
       <c r="S7">
-        <v>0.08252387756299358</v>
+        <v>0.1975173779485476</v>
       </c>
       <c r="T7">
-        <v>0.08252387756299361</v>
+        <v>0.1975173779485476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>136.676337</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H8">
-        <v>410.029011</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I8">
-        <v>0.1929387280825172</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J8">
-        <v>0.1929387280825173</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,33 +933,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.016188</v>
+        <v>0.02482733333333334</v>
       </c>
       <c r="N8">
-        <v>0.048564</v>
+        <v>0.07448200000000001</v>
       </c>
       <c r="O8">
-        <v>0.007712021027818474</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="P8">
-        <v>0.007712021027818474</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="Q8">
-        <v>2.212516543356</v>
+        <v>0.7084417084544444</v>
       </c>
       <c r="R8">
-        <v>19.912648890204</v>
+        <v>6.37597537609</v>
       </c>
       <c r="S8">
-        <v>0.001487947528052924</v>
+        <v>0.0003362801083643966</v>
       </c>
       <c r="T8">
-        <v>0.001487947528052924</v>
+        <v>0.0003362801083643966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>136.676337</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H9">
-        <v>410.029011</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I9">
-        <v>0.1929387280825172</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J9">
-        <v>0.1929387280825173</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4940476666666667</v>
+        <v>2.387174666666667</v>
       </c>
       <c r="N9">
-        <v>1.482143</v>
+        <v>7.161524</v>
       </c>
       <c r="O9">
-        <v>0.2353660732689639</v>
+        <v>0.9897067525925213</v>
       </c>
       <c r="P9">
-        <v>0.2353660732689638</v>
+        <v>0.9897067525925214</v>
       </c>
       <c r="Q9">
-        <v>67.52462538339702</v>
+        <v>68.11742834104221</v>
       </c>
       <c r="R9">
-        <v>607.7216284505731</v>
+        <v>613.0568550693799</v>
       </c>
       <c r="S9">
-        <v>0.04541123081029045</v>
+        <v>0.03233369225818623</v>
       </c>
       <c r="T9">
-        <v>0.04541123081029046</v>
+        <v>0.03233369225818623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>136.676337</v>
+        <v>230.32901</v>
       </c>
       <c r="H10">
-        <v>410.029011</v>
+        <v>690.98703</v>
       </c>
       <c r="I10">
-        <v>0.1929387280825172</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J10">
-        <v>0.1929387280825173</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.588825</v>
+        <v>0.02482733333333334</v>
       </c>
       <c r="N10">
-        <v>4.766475</v>
+        <v>0.07448200000000001</v>
       </c>
       <c r="O10">
-        <v>0.7569219057032177</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="P10">
-        <v>0.7569219057032177</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="Q10">
-        <v>217.154781134025</v>
+        <v>5.718455107606668</v>
       </c>
       <c r="R10">
-        <v>1954.393030206225</v>
+        <v>51.46609596846</v>
       </c>
       <c r="S10">
-        <v>0.1460395497441739</v>
+        <v>0.002714412040276655</v>
       </c>
       <c r="T10">
-        <v>0.1460395497441739</v>
+        <v>0.002714412040276655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.55066433333334</v>
+        <v>230.32901</v>
       </c>
       <c r="H11">
-        <v>136.651993</v>
+        <v>690.98703</v>
       </c>
       <c r="I11">
-        <v>0.06430145431675577</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J11">
-        <v>0.06430145431675578</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.016188</v>
+        <v>2.387174666666667</v>
       </c>
       <c r="N11">
-        <v>0.048564</v>
+        <v>7.161524</v>
       </c>
       <c r="O11">
-        <v>0.007712021027818474</v>
+        <v>0.9897067525925213</v>
       </c>
       <c r="P11">
-        <v>0.007712021027818474</v>
+        <v>0.9897067525925214</v>
       </c>
       <c r="Q11">
-        <v>0.7373741542279999</v>
+        <v>549.8355776704134</v>
       </c>
       <c r="R11">
-        <v>6.636367388051999</v>
+        <v>4948.52019903372</v>
       </c>
       <c r="S11">
-        <v>0.0004958941678101295</v>
+        <v>0.2609936222487343</v>
       </c>
       <c r="T11">
-        <v>0.0004958941678101296</v>
+        <v>0.2609936222487343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.55066433333334</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H12">
-        <v>136.651993</v>
+        <v>454.666397</v>
       </c>
       <c r="I12">
-        <v>0.06430145431675577</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J12">
-        <v>0.06430145431675578</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4940476666666667</v>
+        <v>0.02482733333333334</v>
       </c>
       <c r="N12">
-        <v>1.482143</v>
+        <v>0.07448200000000001</v>
       </c>
       <c r="O12">
-        <v>0.2353660732689639</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="P12">
-        <v>0.2353660732689638</v>
+        <v>0.01029324740747866</v>
       </c>
       <c r="Q12">
-        <v>22.50419942899989</v>
+        <v>3.762718064594889</v>
       </c>
       <c r="R12">
-        <v>202.537794860999</v>
+        <v>33.864462581354</v>
       </c>
       <c r="S12">
-        <v>0.01513438080801847</v>
+        <v>0.001786071067536543</v>
       </c>
       <c r="T12">
-        <v>0.01513438080801847</v>
+        <v>0.001786071067536543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.55066433333334</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H13">
-        <v>136.651993</v>
+        <v>454.666397</v>
       </c>
       <c r="I13">
-        <v>0.06430145431675577</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J13">
-        <v>0.06430145431675578</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.588825</v>
+        <v>2.387174666666667</v>
       </c>
       <c r="N13">
-        <v>4.766475</v>
+        <v>7.161524</v>
       </c>
       <c r="O13">
-        <v>0.7569219057032177</v>
+        <v>0.9897067525925213</v>
       </c>
       <c r="P13">
-        <v>0.7569219057032177</v>
+        <v>0.9897067525925214</v>
       </c>
       <c r="Q13">
-        <v>72.37203425940834</v>
+        <v>361.7893682343365</v>
       </c>
       <c r="R13">
-        <v>651.348308334675</v>
+        <v>3256.104314109028</v>
       </c>
       <c r="S13">
-        <v>0.04867117934092717</v>
+        <v>0.1717326443418352</v>
       </c>
       <c r="T13">
-        <v>0.04867117934092718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>198.5982106666667</v>
-      </c>
-      <c r="H14">
-        <v>595.794632</v>
-      </c>
-      <c r="I14">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="J14">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.016188</v>
-      </c>
-      <c r="N14">
-        <v>0.048564</v>
-      </c>
-      <c r="O14">
-        <v>0.007712021027818474</v>
-      </c>
-      <c r="P14">
-        <v>0.007712021027818474</v>
-      </c>
-      <c r="Q14">
-        <v>3.214907834271999</v>
-      </c>
-      <c r="R14">
-        <v>28.934170508448</v>
-      </c>
-      <c r="S14">
-        <v>0.002162069331995636</v>
-      </c>
-      <c r="T14">
-        <v>0.002162069331995637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>198.5982106666667</v>
-      </c>
-      <c r="H15">
-        <v>595.794632</v>
-      </c>
-      <c r="I15">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="J15">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.4940476666666667</v>
-      </c>
-      <c r="N15">
-        <v>1.482143</v>
-      </c>
-      <c r="O15">
-        <v>0.2353660732689639</v>
-      </c>
-      <c r="P15">
-        <v>0.2353660732689638</v>
-      </c>
-      <c r="Q15">
-        <v>98.11698258404178</v>
-      </c>
-      <c r="R15">
-        <v>883.0528432563761</v>
-      </c>
-      <c r="S15">
-        <v>0.06598500794687441</v>
-      </c>
-      <c r="T15">
-        <v>0.06598500794687442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>198.5982106666667</v>
-      </c>
-      <c r="H16">
-        <v>595.794632</v>
-      </c>
-      <c r="I16">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="J16">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.588825</v>
-      </c>
-      <c r="N16">
-        <v>4.766475</v>
-      </c>
-      <c r="O16">
-        <v>0.7569219057032177</v>
-      </c>
-      <c r="P16">
-        <v>0.7569219057032177</v>
-      </c>
-      <c r="Q16">
-        <v>315.5378020624667</v>
-      </c>
-      <c r="R16">
-        <v>2839.8402185622</v>
-      </c>
-      <c r="S16">
-        <v>0.2122034721032843</v>
-      </c>
-      <c r="T16">
-        <v>0.2122034721032844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H17">
-        <v>430.367156</v>
-      </c>
-      <c r="I17">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J17">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.016188</v>
-      </c>
-      <c r="N17">
-        <v>0.048564</v>
-      </c>
-      <c r="O17">
-        <v>0.007712021027818474</v>
-      </c>
-      <c r="P17">
-        <v>0.007712021027818474</v>
-      </c>
-      <c r="Q17">
-        <v>2.322261173775999</v>
-      </c>
-      <c r="R17">
-        <v>20.900350563984</v>
-      </c>
-      <c r="S17">
-        <v>0.001561752287633537</v>
-      </c>
-      <c r="T17">
-        <v>0.001561752287633538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H18">
-        <v>430.367156</v>
-      </c>
-      <c r="I18">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J18">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.4940476666666667</v>
-      </c>
-      <c r="N18">
-        <v>1.482143</v>
-      </c>
-      <c r="O18">
-        <v>0.2353660732689639</v>
-      </c>
-      <c r="P18">
-        <v>0.2353660732689638</v>
-      </c>
-      <c r="Q18">
-        <v>70.87396307725645</v>
-      </c>
-      <c r="R18">
-        <v>637.865667695308</v>
-      </c>
-      <c r="S18">
-        <v>0.04766370605489735</v>
-      </c>
-      <c r="T18">
-        <v>0.04766370605489736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H19">
-        <v>430.367156</v>
-      </c>
-      <c r="I19">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J19">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.588825</v>
-      </c>
-      <c r="N19">
-        <v>4.766475</v>
-      </c>
-      <c r="O19">
-        <v>0.7569219057032177</v>
-      </c>
-      <c r="P19">
-        <v>0.7569219057032177</v>
-      </c>
-      <c r="Q19">
-        <v>227.9260322105666</v>
-      </c>
-      <c r="R19">
-        <v>2051.3342898951</v>
-      </c>
-      <c r="S19">
-        <v>0.1532833628860486</v>
-      </c>
-      <c r="T19">
-        <v>0.1532833628860487</v>
+        <v>0.1717326443418353</v>
       </c>
     </row>
   </sheetData>
